--- a/Reports and Analysis Plan/AnalysisTable_Final.xlsx
+++ b/Reports and Analysis Plan/AnalysisTable_Final.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cubes\OneDrive\Reseach\deeplearning\Report3_tedtalk_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cubes\OneDrive\Reseach\deeplearning\Report3_tedtalk_project\Reports and Analysis Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960C715-6758-46A8-B435-388C3295EE55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A50A837-FE49-4A15-92A5-9C60414D77C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{003590BF-49AB-4FE0-AF5C-D05419C7732B}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Assingments" sheetId="1" r:id="rId1"/>
-    <sheet name="Results Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Results Analysis" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Results Analysis'!$A$1:$C$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Results Analysis'!$A$1:$C$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="144">
   <si>
     <t>Covariates</t>
   </si>
@@ -123,9 +124,6 @@
     <t>Major Sentiments in the talks in popular and not popular ones</t>
   </si>
   <si>
-    <t>Poster Presentation in PowerPoint</t>
-  </si>
-  <si>
     <t>Do the associations change from year to year? Do the total number of views increase over the years (grouping variable is year and need to convert the dates)</t>
   </si>
   <si>
@@ -217,9 +215,6 @@
   </si>
   <si>
     <t>Word Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each popularity with tags appear the most. </t>
   </si>
   <si>
     <t>number_of_tags</t>
@@ -374,9 +369,6 @@
     <t>This excel file contains two tables: Table 1. Data Cleaning Tasks; &amp;  Table 2. Main questions and analyses.</t>
   </si>
   <si>
-    <t>(Faizan) / Di Shan / Mona / Jerry / Wenting</t>
-  </si>
-  <si>
     <t>Exploratory Data Analysis (EDA) https://www.kaggle.com/rounakbanik/ted-data-analysis</t>
   </si>
   <si>
@@ -489,13 +481,52 @@
   </si>
   <si>
     <t>Train a multivariable deep neural network and see predition performance of the model.</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>Number of views</t>
+  </si>
+  <si>
+    <t>number of comments</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>same as in Faizan code</t>
+  </si>
+  <si>
+    <t>Create a Predictive Model for number of views using baseline ML models</t>
+  </si>
+  <si>
+    <t>Model is Random Forest</t>
+  </si>
+  <si>
+    <t>Model is SVM</t>
+  </si>
+  <si>
+    <t>Multivariable Linear Regression Analysis</t>
+  </si>
+  <si>
+    <t>Model is KNN</t>
+  </si>
+  <si>
+    <t>For each popularity with tags appear the most.  For different subgroups, such as for occupation, for popularity, etc.</t>
+  </si>
+  <si>
+    <t>Poster Presentation</t>
+  </si>
+  <si>
+    <t>Wenting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,8 +702,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,8 +735,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -785,17 +829,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1514,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1522,22 +1555,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1555,16 +1588,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1573,10 +1597,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,10 +1606,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1613,21 +1631,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1635,60 +1653,57 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1700,17 +1715,17 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1719,158 +1734,162 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1879,17 +1898,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1897,37 +1919,108 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2248,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF24104-139E-4310-A4A1-D85B5D1E7C3E}">
-  <dimension ref="B1:K59"/>
+  <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2268,880 +2361,1006 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
+      <c r="B1" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="5" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="143"/>
+      <c r="C6" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="97"/>
+    </row>
+    <row r="7" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="143"/>
+      <c r="C7" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="128" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="130" t="s">
+      <c r="E7" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="153" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="106"/>
-    </row>
-    <row r="5" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="147" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="122" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="119" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="106"/>
-    </row>
-    <row r="6" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="148"/>
-      <c r="C6" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="106"/>
-    </row>
-    <row r="7" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="148"/>
-      <c r="C7" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="106"/>
+      <c r="I7" s="97"/>
     </row>
     <row r="8" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="148"/>
-      <c r="C8" s="108" t="s">
+      <c r="B8" s="143"/>
+      <c r="C8" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="97"/>
+    </row>
+    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="143"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="116" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="106"/>
-    </row>
-    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="148"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="116" t="s">
+      <c r="I9" s="97"/>
+    </row>
+    <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="143"/>
+      <c r="C10" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="97"/>
+    </row>
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="B11" s="143"/>
+      <c r="C11" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="97"/>
+    </row>
+    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="143"/>
+      <c r="C12" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="106"/>
-    </row>
-    <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="148"/>
-      <c r="C10" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="106"/>
-    </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="B11" s="148"/>
-      <c r="C11" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="120" t="s">
+      <c r="F12" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B13" s="144"/>
+      <c r="C13" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="106"/>
-    </row>
-    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="148"/>
-      <c r="C12" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="106"/>
-    </row>
-    <row r="13" spans="2:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="B13" s="149"/>
-      <c r="C13" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="106"/>
+      <c r="F13" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="97"/>
     </row>
     <row r="14" spans="2:9" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="120"/>
-      <c r="I14" s="106"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="111"/>
+      <c r="I14" s="97"/>
     </row>
     <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="110"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="121"/>
-      <c r="I15" s="35"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="112"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="46"/>
+        <v>29</v>
+      </c>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="100"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="101"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="92"/>
     </row>
     <row r="23" spans="2:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="144" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="96" t="s">
+      <c r="B23" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="80"/>
+      <c r="F23" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="81"/>
+    </row>
+    <row r="24" spans="2:11" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="140"/>
+      <c r="C24" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="98" t="s">
+      <c r="D24" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="88"/>
-    </row>
-    <row r="24" spans="2:11" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="145"/>
-      <c r="C24" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="94" t="s">
+      <c r="H24" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-    </row>
-    <row r="25" spans="2:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="146"/>
-      <c r="C25" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="95" t="s">
+      <c r="I24" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+    </row>
+    <row r="25" spans="2:11" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="141"/>
+      <c r="C25" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="175" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="176" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="102"/>
+      <c r="G25" s="177" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="178" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="55"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="73"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="72"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="58"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:11" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="162"/>
+    </row>
+    <row r="29" spans="2:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="146"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="133" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="68"/>
+    </row>
+    <row r="30" spans="2:11" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="147"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="154" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="155"/>
+    </row>
+    <row r="31" spans="2:11" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="147"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="158" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="159" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="161" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="162"/>
+    </row>
+    <row r="32" spans="2:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="147"/>
+      <c r="C32" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="37" t="s">
+      <c r="D32" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="75"/>
+      <c r="I32" s="81"/>
+    </row>
+    <row r="33" spans="2:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="147"/>
+      <c r="C33" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="147"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="73"/>
+    </row>
+    <row r="35" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="147"/>
+      <c r="C35" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H35" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="73"/>
-    </row>
-    <row r="29" spans="2:11" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="151"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="17" t="s">
+      <c r="I35" s="68"/>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="147"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="73"/>
-    </row>
-    <row r="30" spans="2:11" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="151"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="78"/>
-    </row>
-    <row r="31" spans="2:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="151"/>
-      <c r="C31" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="82"/>
-      <c r="I31" s="88"/>
-    </row>
-    <row r="32" spans="2:11" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="151"/>
-      <c r="C32" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="85" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="151"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="80"/>
-    </row>
-    <row r="34" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="151"/>
-      <c r="C34" s="141" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="74"/>
-      <c r="J34" s="51"/>
-    </row>
-    <row r="35" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="151"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="74"/>
-      <c r="J35" s="51"/>
-    </row>
-    <row r="36" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="151"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="74"/>
-      <c r="J36" s="51"/>
-    </row>
-    <row r="37" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="151"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="51"/>
-    </row>
-    <row r="38" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="151"/>
-      <c r="C38" s="141" t="s">
+      <c r="I36" s="68"/>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="147"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="68"/>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="147"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="45"/>
+    </row>
+    <row r="39" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="147"/>
+      <c r="C39" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="18" t="s">
+      <c r="E39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G39" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="51"/>
-    </row>
-    <row r="39" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="151"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="18" t="s">
+      <c r="I39" s="68"/>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="147"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="26" t="s">
+      <c r="E40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H40" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="74"/>
-    </row>
-    <row r="40" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="152"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="7" t="s">
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="148"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="34" t="s">
+      <c r="E41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G41" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H41" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="71"/>
-    </row>
-    <row r="41" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="57"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="58"/>
-    </row>
-    <row r="42" spans="2:10" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="64" t="s">
+      <c r="I41" s="65"/>
+    </row>
+    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="51"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="52"/>
+    </row>
+    <row r="43" spans="2:10" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="54" t="s">
+      <c r="E43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="56"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="49"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="50"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="49"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="50"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="49"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="50"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="51"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="52"/>
+    </row>
+    <row r="48" spans="2:10" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="65" t="s">
+      <c r="G48" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="62"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="55"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="56"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="55"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="56"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="55"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="56"/>
-    </row>
-    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="57"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="58"/>
-    </row>
-    <row r="47" spans="2:10" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="104"/>
-      <c r="I47" s="60"/>
-    </row>
-    <row r="48" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="154"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="157"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="54"/>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="154"/>
-      <c r="C49" s="155"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="155"/>
-      <c r="I49" s="157"/>
-    </row>
-    <row r="50" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="57"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="58"/>
-    </row>
-    <row r="51" spans="2:9" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="158" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="159"/>
-      <c r="D51" s="160" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="160"/>
-      <c r="F51" s="161"/>
-      <c r="G51" s="163" t="s">
+      <c r="F49" s="130"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="131"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="128"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="131"/>
+    </row>
+    <row r="51" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="51"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="52"/>
+    </row>
+    <row r="52" spans="2:9" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="165" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="166"/>
+      <c r="D52" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="167"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="159" t="s">
-        <v>133</v>
-      </c>
-      <c r="I51" s="162"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="55"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="56"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="57"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="58"/>
-    </row>
-    <row r="54" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="140" t="s">
+      <c r="H52" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="I52" s="132"/>
+    </row>
+    <row r="53" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="128"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="131"/>
+    </row>
+    <row r="54" spans="2:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="180"/>
+      <c r="D54" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="181" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="182" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="129"/>
+      <c r="I54" s="131"/>
+    </row>
+    <row r="55" spans="2:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="180"/>
+      <c r="D55" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="181" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="182" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="129"/>
+      <c r="I55" s="131"/>
+    </row>
+    <row r="56" spans="2:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="180"/>
+      <c r="D56" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="181" t="s">
+        <v>140</v>
+      </c>
+      <c r="G56" s="182" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="129"/>
+      <c r="I56" s="131"/>
+    </row>
+    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="128"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="131"/>
+    </row>
+    <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="128"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="131"/>
+    </row>
+    <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="128"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="131"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="49"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="50"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="51"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="52"/>
+    </row>
+    <row r="62" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B62" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C62" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="66" t="s">
+      <c r="D62" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="30"/>
+      <c r="F62" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="56"/>
-    </row>
-    <row r="55" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="140"/>
-      <c r="C55" s="61" t="s">
+      <c r="H62" s="30"/>
+      <c r="I62" s="50"/>
+    </row>
+    <row r="63" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B63" s="135"/>
+      <c r="C63" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35" t="s">
+      <c r="D63" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="66" t="s">
+      <c r="G63" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="56"/>
-    </row>
-    <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="55"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="56"/>
-    </row>
-    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="57"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="58"/>
-    </row>
-    <row r="58" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="55"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="56"/>
-    </row>
-    <row r="59" spans="2:9" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="133" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="134"/>
-      <c r="I59" s="136"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="50"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="49"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="50"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="51"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="52"/>
+    </row>
+    <row r="66" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="49"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="50"/>
+    </row>
+    <row r="67" spans="2:9" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="183" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="184"/>
+      <c r="D67" s="184"/>
+      <c r="E67" s="184"/>
+      <c r="F67" s="184"/>
+      <c r="G67" s="185" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="123"/>
+      <c r="I67" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C39:C41"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B5:B13"/>
-    <mergeCell ref="B28:B40"/>
+    <mergeCell ref="B28:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3149,6 +3368,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD94472-2E26-42BB-A8F4-AC0A35D48D6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3616DBE-D28D-473A-9E29-0F3ED0228C0A}">
   <dimension ref="A1:C70"/>
   <sheetViews>
@@ -3160,18 +3393,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>2438437.9997847001</v>
@@ -3179,7 +3412,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>2438437.9997847001</v>
@@ -3187,7 +3420,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>2438437.9997847001</v>
@@ -3195,7 +3428,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>2438437.9997847001</v>
@@ -3203,7 +3436,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>2438437.9997847001</v>
@@ -3211,7 +3444,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>2438437.9997847001</v>
@@ -3219,7 +3452,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>2438437.9997847001</v>
@@ -3227,7 +3460,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>2438437.9997847001</v>
@@ -3235,7 +3468,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>2438437.9997847001</v>
@@ -3243,7 +3476,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>2438437.9997847001</v>
@@ -3251,7 +3484,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>2438437.9997847001</v>
@@ -3259,7 +3492,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>2438437.9997847001</v>
@@ -3267,22 +3500,22 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>2545917.4134427099</v>
@@ -3290,7 +3523,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C18">
         <v>2545917.4134427099</v>
@@ -3298,7 +3531,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19">
         <v>2545917.4134427099</v>
@@ -3306,7 +3539,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C20">
         <v>2545917.4134427099</v>
@@ -3314,7 +3547,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C21">
         <v>2545917.4134427099</v>
@@ -3322,7 +3555,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22">
         <v>2545917.4134427099</v>
@@ -3330,7 +3563,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C23">
         <v>2545917.4134427099</v>
@@ -3338,7 +3571,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24">
         <v>2545917.4134427099</v>
@@ -3346,7 +3579,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25">
         <v>2545917.4134427099</v>
@@ -3354,7 +3587,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26">
         <v>2545917.4134427099</v>
@@ -3362,22 +3595,22 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>2546445.64793084</v>
@@ -3385,7 +3618,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>2546445.64793084</v>
@@ -3393,7 +3626,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>2546445.64793084</v>
@@ -3401,7 +3634,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>2546445.64793084</v>
@@ -3409,7 +3642,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>2546445.64793084</v>
@@ -3417,7 +3650,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>2546445.64793084</v>
@@ -3425,7 +3658,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C36">
         <v>2546445.64793084</v>
@@ -3433,7 +3666,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <v>2546445.64793084</v>
@@ -3441,7 +3674,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C38">
         <v>2546445.64793084</v>
@@ -3449,7 +3682,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C39">
         <v>2546445.64793084</v>
@@ -3457,7 +3690,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C40">
         <v>2546445.64793084</v>
@@ -3465,7 +3698,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C41">
         <v>2546445.64793084</v>
@@ -3473,22 +3706,22 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <v>2546445.64793084</v>
@@ -3496,7 +3729,7 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C46">
         <v>2546445.64793084</v>
@@ -3504,7 +3737,7 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C47">
         <v>2546445.64793084</v>
@@ -3512,7 +3745,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C48">
         <v>2546445.64793084</v>
@@ -3520,7 +3753,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C49">
         <v>2546445.64793084</v>
@@ -3528,7 +3761,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C50">
         <v>2546445.64793084</v>
@@ -3536,7 +3769,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>2546445.64793084</v>
@@ -3544,7 +3777,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C52">
         <v>2546445.64793084</v>
@@ -3552,7 +3785,7 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53">
         <v>2546445.64793084</v>
@@ -3560,7 +3793,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C54">
         <v>2546445.64793084</v>
@@ -3568,7 +3801,7 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C55">
         <v>2546445.64793084</v>
@@ -3576,7 +3809,7 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C56">
         <v>2546445.64793084</v>
@@ -3584,22 +3817,22 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C60">
         <v>2545463.1972107398</v>
@@ -3607,7 +3840,7 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C61">
         <v>2545463.1972107398</v>
@@ -3615,7 +3848,7 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C62">
         <v>2545463.1972107398</v>
@@ -3623,7 +3856,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C63">
         <v>2545463.1972107398</v>
@@ -3631,7 +3864,7 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C64">
         <v>2545463.1972107398</v>
@@ -3639,7 +3872,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C65">
         <v>2545463.1972107398</v>
@@ -3647,7 +3880,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C66">
         <v>2545463.1972107398</v>
@@ -3655,7 +3888,7 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C67">
         <v>2545463.1972107398</v>
@@ -3663,7 +3896,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C68">
         <v>2545463.1972107398</v>
@@ -3671,7 +3904,7 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C69">
         <v>2545463.1972107398</v>
@@ -3679,7 +3912,7 @@
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C70">
         <v>2545463.1972107398</v>
